--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA6604-7053-4FA4-BBF0-DF21045B9088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-10426" yWindow="4620" windowWidth="16589" windowHeight="8582" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Opis</t>
   </si>
@@ -35,12 +36,33 @@
   </si>
   <si>
     <t>Procena napora</t>
+  </si>
+  <si>
+    <t>Prof. dr Perišić</t>
+  </si>
+  <si>
+    <t>Neophodno je da napravimo  obrazac za prijavljivanje korisnika i proveru unesenih podataka.</t>
+  </si>
+  <si>
+    <t>Visok</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Esencijalni</t>
+  </si>
+  <si>
+    <t>Funkcionalni</t>
+  </si>
+  <si>
+    <t>Neophodno je da napravimo  profil sa podacima ulogovanog korisnika.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,9 +147,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -137,14 +156,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,6 +261,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -274,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,44 +505,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="19.95" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="20.05" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" style="2"/>
-    <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" style="2"/>
-    <col min="7" max="7" width="15.77734375" style="3"/>
-    <col min="8" max="16384" width="15.77734375" style="4"/>
+    <col min="1" max="1" width="23.796875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="15.796875" style="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.796875" style="1"/>
+    <col min="7" max="7" width="15.796875" style="2"/>
+    <col min="8" max="16384" width="15.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="20.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA6604-7053-4FA4-BBF0-DF21045B9088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10426" yWindow="4620" windowWidth="16589" windowHeight="8582" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10428" yWindow="4620" windowWidth="16584" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Opis</t>
   </si>
@@ -41,9 +40,6 @@
     <t>Prof. dr Perišić</t>
   </si>
   <si>
-    <t>Neophodno je da napravimo  obrazac za prijavljivanje korisnika i proveru unesenih podataka.</t>
-  </si>
-  <si>
     <t>Visok</t>
   </si>
   <si>
@@ -56,14 +52,29 @@
     <t>Funkcionalni</t>
   </si>
   <si>
-    <t>Neophodno je da napravimo  profil sa podacima ulogovanog korisnika.</t>
+    <t>Neophodno je da napravimo serijsku,  sekvencijalnu datoteku I tabela relacionih baza MySql. Za trajno cuvanje informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Neophodno je da napravimo  obrazac za prijavljivanje korisnika I rukovanje pravima pristupa.</t>
+  </si>
+  <si>
+    <t>Neophodno je da omogucimo dodavanje novog korisnika.</t>
+  </si>
+  <si>
+    <t>Neophodno je da napravimo  profil sa podacima ulogovanog korisnika sa mogucnoscu promene podataka.</t>
+  </si>
+  <si>
+    <t>Neophodno je da napravimo kolekciju korisnika I kolekcije sa podacima o njima</t>
+  </si>
+  <si>
+    <t>Neophodno je da napravimo interaktivnu pocetnu stranu sa svim alatima za upravljanje sistemom I rukovanje sa greskama.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +85,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +184,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -261,23 +282,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -313,23 +317,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,24 +492,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="20.05" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="49.95" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.796875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="15.796875" style="1"/>
+    <col min="1" max="1" width="36.6640625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="15.77734375" style="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.796875" style="1"/>
-    <col min="7" max="7" width="15.796875" style="2"/>
-    <col min="8" max="16384" width="15.796875" style="3"/>
+    <col min="5" max="6" width="15.77734375" style="1"/>
+    <col min="7" max="7" width="15.77734375" style="2"/>
+    <col min="8" max="16384" width="15.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -545,52 +532,146 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
+    <row r="2" spans="1:7" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="83.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC833E-F3EB-4830-9C16-645894482A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10428" yWindow="4620" windowWidth="16584" windowHeight="8580"/>
+    <workbookView xWindow="-10518" yWindow="7937" windowWidth="16589" windowHeight="8583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +56,6 @@
     <t>Neophodno je da napravimo serijsku,  sekvencijalnu datoteku I tabela relacionih baza MySql. Za trajno cuvanje informacionih resursa.</t>
   </si>
   <si>
-    <t>Neophodno je da napravimo  obrazac za prijavljivanje korisnika I rukovanje pravima pristupa.</t>
-  </si>
-  <si>
     <t>Neophodno je da omogucimo dodavanje novog korisnika.</t>
   </si>
   <si>
@@ -68,12 +66,15 @@
   </si>
   <si>
     <t>Neophodno je da napravimo interaktivnu pocetnu stranu sa svim alatima za upravljanje sistemom I rukovanje sa greskama.</t>
+  </si>
+  <si>
+    <t>Neophodno je da napravimo  obrazac za prijavljivanje korisnika I rukovanjem pravima pristupa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,6 +283,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -317,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,24 +527,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="49.95" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="50" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" style="1"/>
+    <col min="1" max="1" width="36.69921875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="15.796875" style="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" style="1"/>
-    <col min="7" max="7" width="15.77734375" style="2"/>
-    <col min="8" max="16384" width="15.77734375" style="3"/>
+    <col min="5" max="6" width="15.796875" style="1"/>
+    <col min="7" max="7" width="15.796875" style="2"/>
+    <col min="8" max="16384" width="15.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -532,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -557,7 +592,7 @@
     </row>
     <row r="3" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -578,9 +613,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -603,7 +638,7 @@
     </row>
     <row r="5" spans="1:7" ht="83.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -626,7 +661,7 @@
     </row>
     <row r="6" spans="1:7" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -649,7 +684,7 @@
     </row>
     <row r="7" spans="1:7" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -670,8 +705,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC833E-F3EB-4830-9C16-645894482A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10518" yWindow="7937" windowWidth="16589" windowHeight="8583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10524" yWindow="7932" windowWidth="16584" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>Opis</t>
   </si>
@@ -53,28 +52,34 @@
     <t>Funkcionalni</t>
   </si>
   <si>
-    <t>Neophodno je da napravimo serijsku,  sekvencijalnu datoteku I tabela relacionih baza MySql. Za trajno cuvanje informacionih resursa.</t>
-  </si>
-  <si>
-    <t>Neophodno je da omogucimo dodavanje novog korisnika.</t>
-  </si>
-  <si>
-    <t>Neophodno je da napravimo  profil sa podacima ulogovanog korisnika sa mogucnoscu promene podataka.</t>
-  </si>
-  <si>
-    <t>Neophodno je da napravimo kolekciju korisnika I kolekcije sa podacima o njima</t>
-  </si>
-  <si>
     <t>Neophodno je da napravimo interaktivnu pocetnu stranu sa svim alatima za upravljanje sistemom I rukovanje sa greskama.</t>
   </si>
   <si>
-    <t>Neophodno je da napravimo  obrazac za prijavljivanje korisnika I rukovanjem pravima pristupa.</t>
+    <t>1.2 da ga sacuvamo, promenimo ime, obrisemo.</t>
+  </si>
+  <si>
+    <t>Neophodno je obezbediti rukovanje informacionim resursima. Pod informacionim resursom se podrazumeva kolekcije svojstava objekata posmatranja sa cime ce se manipulisati.</t>
+  </si>
+  <si>
+    <t>1.1 inf res treba da ga kreiramo, izmenimo,  sacuvamo.</t>
+  </si>
+  <si>
+    <t>Neophodno je omoguciti dodavanje novog korisnika.</t>
+  </si>
+  <si>
+    <t>Neophodno je napraviti  obrazac za prijavljivanje korisnika I rukovanjem pravima pristupa.</t>
+  </si>
+  <si>
+    <t>Neophodno je napraviti kolekciju korisnika I kolekcije sa podacima o njima.</t>
+  </si>
+  <si>
+    <t>Neophodno je napraviti  profil sa podacima ulogovanog korisnika sa mogucnoscu promene podataka.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,23 +288,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,23 +323,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,24 +498,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="50" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="49.95" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.69921875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="15.796875" style="1"/>
+    <col min="1" max="1" width="36.6640625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="15.77734375" style="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.796875" style="1"/>
-    <col min="7" max="7" width="15.796875" style="2"/>
-    <col min="8" max="16384" width="15.796875" style="3"/>
+    <col min="5" max="6" width="15.77734375" style="1"/>
+    <col min="7" max="7" width="15.77734375" style="2"/>
+    <col min="8" max="16384" width="15.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -567,9 +538,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="94.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -590,55 +561,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="83.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -656,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -679,12 +614,12 @@
         <v>9</v>
       </c>
       <c r="G6" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="83.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -702,11 +637,57 @@
         <v>9</v>
       </c>
       <c r="G7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>Opis</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Procena napora</t>
   </si>
   <si>
-    <t>Prof. dr Perišić</t>
-  </si>
-  <si>
     <t>Visok</t>
   </si>
   <si>
@@ -52,35 +49,89 @@
     <t>Funkcionalni</t>
   </si>
   <si>
-    <t>Neophodno je da napravimo interaktivnu pocetnu stranu sa svim alatima za upravljanje sistemom I rukovanje sa greskama.</t>
-  </si>
-  <si>
-    <t>1.2 da ga sacuvamo, promenimo ime, obrisemo.</t>
-  </si>
-  <si>
-    <t>Neophodno je obezbediti rukovanje informacionim resursima. Pod informacionim resursom se podrazumeva kolekcije svojstava objekata posmatranja sa cime ce se manipulisati.</t>
-  </si>
-  <si>
-    <t>1.1 inf res treba da ga kreiramo, izmenimo,  sacuvamo.</t>
-  </si>
-  <si>
-    <t>Neophodno je omoguciti dodavanje novog korisnika.</t>
-  </si>
-  <si>
-    <t>Neophodno je napraviti  obrazac za prijavljivanje korisnika I rukovanjem pravima pristupa.</t>
-  </si>
-  <si>
-    <t>Neophodno je napraviti kolekciju korisnika I kolekcije sa podacima o njima.</t>
-  </si>
-  <si>
-    <t>Neophodno je napraviti  profil sa podacima ulogovanog korisnika sa mogucnoscu promene podataka.</t>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Obezbediti otvaranje i zatvaranje informacionih resursa</t>
+  </si>
+  <si>
+    <t>Obezbediti učitavanje i sačuvavanje informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Obezbediti kreiranje i preuzimanje informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Obezbediti učitavanje i sačuvavanje elemenata informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Obezbediti mogućnost izmene, kreiranja, brisanja, pretrage i prikaza informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Obezbediti u prikazu mogućnost sortiranja informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Obezbediti mogućnost izmene, kreiranja, brisanja, pretrage i prikaza elemenata informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Rukovanje sa aplikacijom:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obezbediti rukovanje sa različitim tipovima informacionih resursa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rad sa informacionim resursima: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obezbediti rukovanje sa različitim tipovima elemenata informacionih resursa. </t>
+  </si>
+  <si>
+    <t>Rad sa elementima informacionih resursa:</t>
+  </si>
+  <si>
+    <t>Obezbediti u prikazu mogućnost sortiranja elemenata informacionih resursa.</t>
+  </si>
+  <si>
+    <t>Obezbediti mogućnost prekida aplikacije u bilo kom trenutku rada aplikacije.</t>
+  </si>
+  <si>
+    <t>U slučaju da je bilo izmene, dodavanja ili brisanja informacionih resursa ili elemenata informacionih resursa omogućiti sačuvavanje.</t>
+  </si>
+  <si>
+    <t>Obezbediti mogućnost da se aplikacija parametrizuje i podešava.</t>
+  </si>
+  <si>
+    <t>Obezbediti registraciju korisnika.</t>
+  </si>
+  <si>
+    <t>Obezbediti logovanje korisnika.</t>
+  </si>
+  <si>
+    <t>Ograničiti pristup elementima informacionih resursa kroz mehanizam administracije, kontrole prava pristupa.</t>
+  </si>
+  <si>
+    <t>Ograničiti pristup informacionim resursima kroz mehanizam administracije, kontrole prava pristupa.</t>
+  </si>
+  <si>
+    <t>Ograničiti pristup aplikaciji kroz mehanizam administriranja korisnika.</t>
+  </si>
+  <si>
+    <t>Redni broj zahteva:</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Arhitektura aplikacije:</t>
+  </si>
+  <si>
+    <t>Obezbediti da su razdvojeni struktura informacionih resursa i model prikaza informacionih resursa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +149,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,14 +253,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,195 +575,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="49.95" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" style="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" style="1"/>
-    <col min="7" max="7" width="15.77734375" style="2"/>
-    <col min="8" max="16384" width="15.77734375" style="3"/>
+    <col min="1" max="1" width="14.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="15.77734375" style="1"/>
+    <col min="5" max="5" width="26.21875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.77734375" style="1"/>
+    <col min="8" max="8" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="15.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="94.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="54.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="69.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="68.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="83.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2">
+    </row>
+    <row r="19" spans="1:8" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="65.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="39.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>9</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>10</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
